--- a/Tools/Luban/Datas/Constants.xlsx
+++ b/Tools/Luban/Datas/Constants.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51639E2-0A8F-4F27-8051-27E9E6DA8B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A4893C-D095-4621-80A6-40E5F0EF0900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>##type</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>1280,720|1920,1080</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gravity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -509,7 +521,7 @@
   <dimension ref="A1:R105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -634,10 +646,18 @@
       <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="12"/>
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>

--- a/Tools/Luban/Datas/Constants.xlsx
+++ b/Tools/Luban/Datas/Constants.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A4893C-D095-4621-80A6-40E5F0EF0900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6D0E46-380B-4DDA-A198-53264B92E8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>##type</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t>500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoreStats</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strength|Intelligence|Willpower|Dexterity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>array#sep=|,Stats.StatType</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +533,7 @@
   <dimension ref="A1:R105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -529,7 +541,7 @@
     <col min="1" max="1" width="35.33203125" customWidth="1"/>
     <col min="2" max="2" width="28.5546875" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="43.88671875" style="14" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" style="9" customWidth="1"/>
     <col min="6" max="6" width="11.5546875" style="9" customWidth="1"/>
     <col min="7" max="9" width="13.5546875" customWidth="1"/>
@@ -674,10 +686,16 @@
       <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
